--- a/Code/Results/Cases/Case_7_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_14/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.430953865250672</v>
+        <v>3.458060698480949</v>
       </c>
       <c r="C2">
-        <v>0.4719732372115288</v>
+        <v>0.4928050776748591</v>
       </c>
       <c r="D2">
-        <v>0.04677897144372167</v>
+        <v>0.04867429570550996</v>
       </c>
       <c r="E2">
-        <v>0.03456106913217738</v>
+        <v>0.03644487383862227</v>
       </c>
       <c r="F2">
-        <v>2.166381515673095</v>
+        <v>0.5251896498787474</v>
       </c>
       <c r="G2">
-        <v>0.0007980211552259735</v>
+        <v>0.0007917873058987171</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3246914041951214</v>
+        <v>0.3259628677836446</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.755965469148819</v>
+        <v>1.500363286339677</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.969824555837135</v>
+        <v>3.004713044935841</v>
       </c>
       <c r="C3">
-        <v>0.4149057903327673</v>
+        <v>0.4481135299349717</v>
       </c>
       <c r="D3">
-        <v>0.04828832536964356</v>
+        <v>0.04447455314902271</v>
       </c>
       <c r="E3">
-        <v>0.03398730032911601</v>
+        <v>0.03718283109652454</v>
       </c>
       <c r="F3">
-        <v>1.957759112092432</v>
+        <v>0.4908848317227239</v>
       </c>
       <c r="G3">
-        <v>0.0008068193143225821</v>
+        <v>0.0007966119782791849</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2843048353065569</v>
+        <v>0.2856862178810786</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.597109918618401</v>
+        <v>1.438729215236947</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.691051648679434</v>
+        <v>2.727163640839365</v>
       </c>
       <c r="C4">
-        <v>0.3801291237323881</v>
+        <v>0.4207239268131104</v>
       </c>
       <c r="D4">
-        <v>0.04930440687638082</v>
+        <v>0.04190048411159353</v>
       </c>
       <c r="E4">
-        <v>0.03368637287871579</v>
+        <v>0.03774775223900839</v>
       </c>
       <c r="F4">
-        <v>1.834584273498137</v>
+        <v>0.4714032672230672</v>
       </c>
       <c r="G4">
-        <v>0.0008123586889112179</v>
+        <v>0.0007996674912050437</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2600415226221457</v>
+        <v>0.2612316779926829</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.503651637239699</v>
+        <v>1.406216729617228</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.578393393137389</v>
+        <v>2.614211446374327</v>
       </c>
       <c r="C5">
-        <v>0.3660066903591712</v>
+        <v>0.4095715005601335</v>
       </c>
       <c r="D5">
-        <v>0.04973937745900869</v>
+        <v>0.04085231383883325</v>
       </c>
       <c r="E5">
-        <v>0.03357589347202605</v>
+        <v>0.03800496075404247</v>
       </c>
       <c r="F5">
-        <v>1.785500513351309</v>
+        <v>0.4638365365231607</v>
       </c>
       <c r="G5">
-        <v>0.0008146523758034707</v>
+        <v>0.0008009365990981809</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2502723900905863</v>
+        <v>0.2513278818752269</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.466489804400467</v>
+        <v>1.39422704576512</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.559739373842206</v>
+        <v>2.595463522929208</v>
       </c>
       <c r="C6">
-        <v>0.363664190301904</v>
+        <v>0.4077200903219023</v>
       </c>
       <c r="D6">
-        <v>0.04981282429891465</v>
+        <v>0.04067830309885778</v>
       </c>
       <c r="E6">
-        <v>0.0335582610954237</v>
+        <v>0.03804926908803985</v>
       </c>
       <c r="F6">
-        <v>1.777413804945596</v>
+        <v>0.4626018433207051</v>
       </c>
       <c r="G6">
-        <v>0.0008150354867465768</v>
+        <v>0.0008011487959571134</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2486569413535022</v>
+        <v>0.2496868714876683</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.460372030593476</v>
+        <v>1.392309946816766</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.689528670271386</v>
+        <v>2.725639780654035</v>
       </c>
       <c r="C7">
-        <v>0.379938484917318</v>
+        <v>0.4205734894259194</v>
       </c>
       <c r="D7">
-        <v>0.04931019032404294</v>
+        <v>0.04188634541305447</v>
       </c>
       <c r="E7">
-        <v>0.03368483468388384</v>
+        <v>0.0377511131616064</v>
       </c>
       <c r="F7">
-        <v>1.833917973451705</v>
+        <v>0.4712997455417209</v>
       </c>
       <c r="G7">
-        <v>0.0008123894729187988</v>
+        <v>0.0007996845091552645</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2599093135289081</v>
+        <v>0.2610978721770323</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.50314685123432</v>
+        <v>1.4060500371464</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.270954467554986</v>
+        <v>3.301546388982104</v>
       </c>
       <c r="C8">
-        <v>0.4522311685562386</v>
+        <v>0.4773824034328413</v>
       </c>
       <c r="D8">
-        <v>0.04727987070597095</v>
+        <v>0.04722503735536776</v>
       </c>
       <c r="E8">
-        <v>0.03435209085336233</v>
+        <v>0.03667542406902413</v>
       </c>
       <c r="F8">
-        <v>2.093347831268048</v>
+        <v>0.5130172131916027</v>
       </c>
       <c r="G8">
-        <v>0.0008010274203679811</v>
+        <v>0.0007934318548472041</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3106451736632607</v>
+        <v>0.312013542651556</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.700280656636053</v>
+        <v>1.477955119338759</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.453481942044505</v>
+        <v>4.439878301966473</v>
       </c>
       <c r="C9">
-        <v>0.5969392031524308</v>
+        <v>0.5893842504351028</v>
       </c>
       <c r="D9">
-        <v>0.04408635621233614</v>
+        <v>0.05774958248264284</v>
       </c>
       <c r="E9">
-        <v>0.03610635949737961</v>
+        <v>0.03550660014720286</v>
       </c>
       <c r="F9">
-        <v>2.647467414706426</v>
+        <v>0.6086071951791965</v>
       </c>
       <c r="G9">
-        <v>0.0007797440787363099</v>
+        <v>0.000781883452224133</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4151813583249293</v>
+        <v>0.4144187579885852</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.124387965020091</v>
+        <v>1.665166353147754</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.360357459269494</v>
+        <v>5.285633030623387</v>
       </c>
       <c r="C10">
-        <v>0.7064157717329067</v>
+        <v>0.6723401689692423</v>
       </c>
       <c r="D10">
-        <v>0.04234732292387378</v>
+        <v>0.06554565487663666</v>
       </c>
       <c r="E10">
-        <v>0.03772659826327107</v>
+        <v>0.03530049010183589</v>
       </c>
       <c r="F10">
-        <v>3.092219455820356</v>
+        <v>0.6890798670227127</v>
       </c>
       <c r="G10">
-        <v>0.0007645718737371463</v>
+        <v>0.0007737946399288089</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.496327898359425</v>
+        <v>0.4917824881637785</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.466979155229112</v>
+        <v>1.836714863363653</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.784390975933889</v>
+        <v>5.673403189607143</v>
       </c>
       <c r="C11">
-        <v>0.7572665841209698</v>
+        <v>0.7102991665620664</v>
       </c>
       <c r="D11">
-        <v>0.04172222284698179</v>
+        <v>0.06911365262614311</v>
       </c>
       <c r="E11">
-        <v>0.03855104398625286</v>
+        <v>0.03536749692738361</v>
       </c>
       <c r="F11">
-        <v>3.305324438833594</v>
+        <v>0.7283587879106364</v>
       </c>
       <c r="G11">
-        <v>0.0007577333933774555</v>
+        <v>0.0007701914494291495</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5345177650219171</v>
+        <v>0.5275768827871303</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.63168442350603</v>
+        <v>1.923555869792523</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.946925814605208</v>
+        <v>5.820764787946928</v>
       </c>
       <c r="C12">
-        <v>0.7767087902771266</v>
+        <v>0.7247119211583595</v>
       </c>
       <c r="D12">
-        <v>0.04151282617943863</v>
+        <v>0.07046854295781912</v>
       </c>
       <c r="E12">
-        <v>0.0388772980893588</v>
+        <v>0.03541772320995484</v>
       </c>
       <c r="F12">
-        <v>3.387826410195316</v>
+        <v>0.743657437864897</v>
       </c>
       <c r="G12">
-        <v>0.0007551493698576071</v>
+        <v>0.0007688371763033155</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5491949173594293</v>
+        <v>0.5412302044962729</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.695534898874953</v>
+        <v>1.957835407501165</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.911828321102348</v>
+        <v>5.789003196190947</v>
       </c>
       <c r="C13">
-        <v>0.7725126676612319</v>
+        <v>0.7216060523730334</v>
       </c>
       <c r="D13">
-        <v>0.04155664759248268</v>
+        <v>0.07017656409624351</v>
       </c>
       <c r="E13">
-        <v>0.03880638246445756</v>
+        <v>0.035405771648092</v>
       </c>
       <c r="F13">
-        <v>3.369973492054612</v>
+        <v>0.7403430361669905</v>
       </c>
       <c r="G13">
-        <v>0.0007557057003365329</v>
+        <v>0.000769128404359961</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5460237874690961</v>
+        <v>0.5382851175172618</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.681714118037988</v>
+        <v>1.95038849210593</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.797721545680986</v>
+        <v>5.685515749429328</v>
       </c>
       <c r="C14">
-        <v>0.7588621554394592</v>
+        <v>0.7114841008627764</v>
       </c>
       <c r="D14">
-        <v>0.04170442643668437</v>
+        <v>0.06922504067522794</v>
       </c>
       <c r="E14">
-        <v>0.03857759418530016</v>
+        <v>0.03537112056329406</v>
       </c>
       <c r="F14">
-        <v>3.312074197165913</v>
+        <v>0.7296086641263457</v>
       </c>
       <c r="G14">
-        <v>0.0007575207149712604</v>
+        <v>0.0007700798335368425</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5357207449784482</v>
+        <v>0.5286980961610084</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.636906487316807</v>
+        <v>1.92634733728579</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.728093400159651</v>
+        <v>5.622197275640531</v>
       </c>
       <c r="C15">
-        <v>0.7505261951887974</v>
+        <v>0.7052893341443109</v>
       </c>
       <c r="D15">
-        <v>0.04179861447886779</v>
+        <v>0.06864271681013889</v>
       </c>
       <c r="E15">
-        <v>0.03843933268043997</v>
+        <v>0.03535318612992455</v>
       </c>
       <c r="F15">
-        <v>3.276852232633672</v>
+        <v>0.7230901017274221</v>
       </c>
       <c r="G15">
-        <v>0.0007586330737436014</v>
+        <v>0.0007706639114071337</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5294389233487635</v>
+        <v>0.5228390137843064</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.609659911654902</v>
+        <v>1.911807086949494</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.332902622313497</v>
+        <v>5.260359484044614</v>
       </c>
       <c r="C16">
-        <v>0.7031165590193496</v>
+        <v>0.6698644746591924</v>
       </c>
       <c r="D16">
-        <v>0.04239179680719474</v>
+        <v>0.06531296682824461</v>
       </c>
       <c r="E16">
-        <v>0.03767459998187839</v>
+        <v>0.03529949119147346</v>
       </c>
       <c r="F16">
-        <v>3.078530375396156</v>
+        <v>0.6865700324545685</v>
       </c>
       <c r="G16">
-        <v>0.0007650197675510425</v>
+        <v>0.0007740315869425406</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4938604098650643</v>
+        <v>0.4894563665873761</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.456410512648318</v>
+        <v>1.831227503457029</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.093616246103409</v>
+        <v>5.039218745789469</v>
       </c>
       <c r="C17">
-        <v>0.6743244984226351</v>
+        <v>0.6481938125455144</v>
       </c>
       <c r="D17">
-        <v>0.04280049051718393</v>
+        <v>0.06327624266395304</v>
       </c>
       <c r="E17">
-        <v>0.03722884136070448</v>
+        <v>0.03530891829091054</v>
       </c>
       <c r="F17">
-        <v>2.959797617640021</v>
+        <v>0.6648780909986129</v>
       </c>
       <c r="G17">
-        <v>0.0007689516608705427</v>
+        <v>0.0007761165666524882</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4723823313481716</v>
+        <v>0.4691396124258347</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.364803724111042</v>
+        <v>1.784137445089442</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.957045704429731</v>
+        <v>4.912304285906146</v>
       </c>
       <c r="C18">
-        <v>0.6578604460580664</v>
+        <v>0.6357498801465624</v>
       </c>
       <c r="D18">
-        <v>0.04305094818334609</v>
+        <v>0.06210675467193028</v>
       </c>
       <c r="E18">
-        <v>0.03698057848096603</v>
+        <v>0.03532936100200423</v>
       </c>
       <c r="F18">
-        <v>2.892503735879643</v>
+        <v>0.6526503016172853</v>
       </c>
       <c r="G18">
-        <v>0.0007712193922704757</v>
+        <v>0.000777323040326889</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.460146641951539</v>
+        <v>0.4575097479607138</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.312933816243827</v>
+        <v>1.757872702895128</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.910978685625537</v>
+        <v>4.869378812788455</v>
       </c>
       <c r="C19">
-        <v>0.6523015647382806</v>
+        <v>0.6315399014079048</v>
       </c>
       <c r="D19">
-        <v>0.04313829564939198</v>
+        <v>0.06171110716936568</v>
       </c>
       <c r="E19">
-        <v>0.03689787438870695</v>
+        <v>0.03533881172971576</v>
       </c>
       <c r="F19">
-        <v>2.869883466181136</v>
+        <v>0.6485517442127673</v>
       </c>
       <c r="G19">
-        <v>0.0007719883744410579</v>
+        <v>0.000777732800416239</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4560231991263777</v>
+        <v>0.4535813007282599</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.2955065555727</v>
+        <v>1.749117033840889</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.118976808408775</v>
+        <v>5.062729997249221</v>
       </c>
       <c r="C20">
-        <v>0.6773792490472772</v>
+        <v>0.6504985282613234</v>
       </c>
       <c r="D20">
-        <v>0.04275536860158269</v>
+        <v>0.06349284566496749</v>
       </c>
       <c r="E20">
-        <v>0.03727544200476629</v>
+        <v>0.03530634807450639</v>
       </c>
       <c r="F20">
-        <v>2.972331908235702</v>
+        <v>0.6671611990455091</v>
       </c>
       <c r="G20">
-        <v>0.0007685324855669824</v>
+        <v>0.0007758938725201033</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4746562861472796</v>
+        <v>0.4712965052379445</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.374469165567334</v>
+        <v>1.789064474211131</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.831181513253227</v>
+        <v>5.715897649798649</v>
       </c>
       <c r="C21">
-        <v>0.7628662835823263</v>
+        <v>0.7144560627101555</v>
       </c>
       <c r="D21">
-        <v>0.04166024856618478</v>
+        <v>0.06950441823185827</v>
       </c>
       <c r="E21">
-        <v>0.03864440054256235</v>
+        <v>0.03538060942438648</v>
       </c>
       <c r="F21">
-        <v>3.329029473413328</v>
+        <v>0.7327497472950739</v>
       </c>
       <c r="G21">
-        <v>0.0007569874810748553</v>
+        <v>0.0007698001063787013</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5387408723931202</v>
+        <v>0.5315112529877268</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.650025610243844</v>
+        <v>1.933369871726512</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.308265661870848</v>
+        <v>6.145865220631265</v>
       </c>
       <c r="C22">
-        <v>0.8198421846946076</v>
+        <v>0.7564839669798005</v>
       </c>
       <c r="D22">
-        <v>0.0411057744181349</v>
+        <v>0.07345564882025712</v>
       </c>
       <c r="E22">
-        <v>0.03962185898410375</v>
+        <v>0.0355749101411309</v>
       </c>
       <c r="F22">
-        <v>3.572810584850316</v>
+        <v>0.7781117115249288</v>
       </c>
       <c r="G22">
-        <v>0.0007494725313574912</v>
+        <v>0.0007658763691166161</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5818981509503232</v>
+        <v>0.5714472294596646</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.838863658844915</v>
+        <v>2.035879441861027</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.052459267509505</v>
+        <v>5.916070907814515</v>
       </c>
       <c r="C23">
-        <v>0.7893188638727224</v>
+        <v>0.73402968240066</v>
       </c>
       <c r="D23">
-        <v>0.04138565897212487</v>
+        <v>0.07134451982922485</v>
       </c>
       <c r="E23">
-        <v>0.03909205119609105</v>
+        <v>0.03545726013243566</v>
       </c>
       <c r="F23">
-        <v>3.441631306739112</v>
+        <v>0.7536585153256681</v>
       </c>
       <c r="G23">
-        <v>0.0007534819344972051</v>
+        <v>0.0007679654402381707</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5587358863114957</v>
+        <v>0.5500750293336552</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.737200710414598</v>
+        <v>1.980372504395774</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.107508211289996</v>
+        <v>5.052099874426347</v>
       </c>
       <c r="C24">
-        <v>0.6759979220145453</v>
+        <v>0.6494565206156437</v>
       </c>
       <c r="D24">
-        <v>0.04277572021177534</v>
+        <v>0.0633949149757953</v>
       </c>
       <c r="E24">
-        <v>0.03725434901487468</v>
+        <v>0.0353074634056405</v>
       </c>
       <c r="F24">
-        <v>2.966662161596162</v>
+        <v>0.6661282514080824</v>
       </c>
       <c r="G24">
-        <v>0.0007687219718956508</v>
+        <v>0.0007759945281896416</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4736278836132897</v>
+        <v>0.4703212175930531</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.370096955149705</v>
+        <v>1.786834457342934</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.127868211012753</v>
+        <v>4.130579945025318</v>
       </c>
       <c r="C25">
-        <v>0.557346473446529</v>
+        <v>0.5589909856887232</v>
       </c>
       <c r="D25">
-        <v>0.04485391488867663</v>
+        <v>0.054893574171615</v>
       </c>
       <c r="E25">
-        <v>0.03557831573150771</v>
+        <v>0.03571426325570037</v>
       </c>
       <c r="F25">
-        <v>2.491747835406343</v>
+        <v>0.5810903690645191</v>
       </c>
       <c r="G25">
-        <v>0.0007854088045991087</v>
+        <v>0.0007849351216924032</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3862398064545829</v>
+        <v>0.3863856022920515</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.004858878193545</v>
+        <v>1.608998351858162</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.458060698480949</v>
+        <v>3.462069491854606</v>
       </c>
       <c r="C2">
-        <v>0.4928050776748591</v>
+        <v>0.5675722280577702</v>
       </c>
       <c r="D2">
-        <v>0.04867429570550996</v>
+        <v>0.07337647418060556</v>
       </c>
       <c r="E2">
-        <v>0.03644487383862227</v>
+        <v>0.06897784216967473</v>
       </c>
       <c r="F2">
-        <v>0.5251896498787474</v>
+        <v>0.3164367826168899</v>
       </c>
       <c r="G2">
-        <v>0.0007917873058987171</v>
+        <v>0.21139191066856</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001124437265626943</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1977102009159708</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1581899856917133</v>
       </c>
       <c r="L2">
-        <v>0.3259628677836446</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3753336768835425</v>
       </c>
       <c r="O2">
-        <v>1.500363286339677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8121098666546374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.004713044935841</v>
+        <v>3.017905616329358</v>
       </c>
       <c r="C3">
-        <v>0.4481135299349717</v>
+        <v>0.5153018142706287</v>
       </c>
       <c r="D3">
-        <v>0.04447455314902271</v>
+        <v>0.0647014159623609</v>
       </c>
       <c r="E3">
-        <v>0.03718283109652454</v>
+        <v>0.06701031427209969</v>
       </c>
       <c r="F3">
-        <v>0.4908848317227239</v>
+        <v>0.2970270622189091</v>
       </c>
       <c r="G3">
-        <v>0.0007966119782791849</v>
+        <v>0.2004557992383482</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0004012363475155434</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1978595155691494</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1681768196633193</v>
       </c>
       <c r="L3">
-        <v>0.2856862178810786</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3314339553335657</v>
       </c>
       <c r="O3">
-        <v>1.438729215236947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.7889140090488098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.727163640839365</v>
+        <v>2.744785753065173</v>
       </c>
       <c r="C4">
-        <v>0.4207239268131104</v>
+        <v>0.4831281199584225</v>
       </c>
       <c r="D4">
-        <v>0.04190048411159353</v>
+        <v>0.05935924879059229</v>
       </c>
       <c r="E4">
-        <v>0.03774775223900839</v>
+        <v>0.06579660691001177</v>
       </c>
       <c r="F4">
-        <v>0.4714032672230672</v>
+        <v>0.2858237442440554</v>
       </c>
       <c r="G4">
-        <v>0.0007996674912050437</v>
+        <v>0.1943779422547181</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0001313694639644147</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1983657016373783</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1748668728141674</v>
       </c>
       <c r="L4">
-        <v>0.2612316779926829</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.304474712393386</v>
       </c>
       <c r="O4">
-        <v>1.406216729617228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.7768815047513016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.614211446374327</v>
+        <v>2.633369034975146</v>
       </c>
       <c r="C5">
-        <v>0.4095715005601335</v>
+        <v>0.4699958420363828</v>
       </c>
       <c r="D5">
-        <v>0.04085231383883325</v>
+        <v>0.05717802858605125</v>
       </c>
       <c r="E5">
-        <v>0.03800496075404247</v>
+        <v>0.06530024067038465</v>
       </c>
       <c r="F5">
-        <v>0.4638365365231607</v>
+        <v>0.2814283824107164</v>
       </c>
       <c r="G5">
-        <v>0.0008009365990981809</v>
+        <v>0.1920524572151976</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.238384558499011E-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1986722498868474</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1777281458315354</v>
       </c>
       <c r="L5">
-        <v>0.2513278818752269</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2934844302179158</v>
       </c>
       <c r="O5">
-        <v>1.39422704576512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.7725067276352178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.595463522929208</v>
+        <v>2.614860761836269</v>
       </c>
       <c r="C6">
-        <v>0.4077200903219023</v>
+        <v>0.4678139210923007</v>
       </c>
       <c r="D6">
-        <v>0.04067830309885778</v>
+        <v>0.05681557370650125</v>
       </c>
       <c r="E6">
-        <v>0.03804926908803985</v>
+        <v>0.06521770241753799</v>
       </c>
       <c r="F6">
-        <v>0.4626018433207051</v>
+        <v>0.280708536316574</v>
       </c>
       <c r="G6">
-        <v>0.0008011487959571134</v>
+        <v>0.1916751966979362</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.332393463197693E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1987290954190968</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1782112612180065</v>
       </c>
       <c r="L6">
-        <v>0.2496868714876683</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.291659165260711</v>
       </c>
       <c r="O6">
-        <v>1.392309946816766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.7718114501875135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.725639780654035</v>
+        <v>2.74328364838334</v>
       </c>
       <c r="C7">
-        <v>0.4205734894259194</v>
+        <v>0.4829511009962175</v>
       </c>
       <c r="D7">
-        <v>0.04188634541305447</v>
+        <v>0.05932984966785426</v>
       </c>
       <c r="E7">
-        <v>0.0377511131616064</v>
+        <v>0.06578992036794151</v>
       </c>
       <c r="F7">
-        <v>0.4712997455417209</v>
+        <v>0.2857637905497583</v>
       </c>
       <c r="G7">
-        <v>0.0007996845091552645</v>
+        <v>0.1943459788617119</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0001302767908771818</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1983694349693295</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1749049211271352</v>
       </c>
       <c r="L7">
-        <v>0.2610978721770323</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3043265143623017</v>
       </c>
       <c r="O7">
-        <v>1.4060500371464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.7768203999068959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.301546388982104</v>
+        <v>3.308994184087794</v>
       </c>
       <c r="C8">
-        <v>0.4773824034328413</v>
+        <v>0.54956505535867</v>
       </c>
       <c r="D8">
-        <v>0.04722503735536776</v>
+        <v>0.07038836613629229</v>
       </c>
       <c r="E8">
-        <v>0.03667542406902413</v>
+        <v>0.06830039153953216</v>
       </c>
       <c r="F8">
-        <v>0.5130172131916027</v>
+        <v>0.3095901896076825</v>
       </c>
       <c r="G8">
-        <v>0.0007934318548472041</v>
+        <v>0.2074834859594716</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0008372045044094945</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1976732238638803</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1615143563064372</v>
       </c>
       <c r="L8">
-        <v>0.312013542651556</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3601961478141789</v>
       </c>
       <c r="O8">
-        <v>1.477955119338759</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8036366277380864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.439878301966473</v>
+        <v>4.416066517959393</v>
       </c>
       <c r="C9">
-        <v>0.5893842504351028</v>
+        <v>0.6796360881439512</v>
       </c>
       <c r="D9">
-        <v>0.05774958248264284</v>
+        <v>0.09196599496372215</v>
       </c>
       <c r="E9">
-        <v>0.03550660014720286</v>
+        <v>0.07319541907327043</v>
       </c>
       <c r="F9">
-        <v>0.6086071951791965</v>
+        <v>0.3624320161789854</v>
       </c>
       <c r="G9">
-        <v>0.000781883452224133</v>
+        <v>0.2387183618800464</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003736810186995509</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1997830573030512</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1399318056593408</v>
       </c>
       <c r="L9">
-        <v>0.4144187579885852</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4698673899708723</v>
       </c>
       <c r="O9">
-        <v>1.665166353147754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.8750343788574781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.285633030623387</v>
+        <v>5.228829099846735</v>
       </c>
       <c r="C10">
-        <v>0.6723401689692423</v>
+        <v>0.7851607290768357</v>
       </c>
       <c r="D10">
-        <v>0.06554565487663666</v>
+        <v>0.1089305678333972</v>
       </c>
       <c r="E10">
-        <v>0.03530049010183589</v>
+        <v>0.0741701144106468</v>
       </c>
       <c r="F10">
-        <v>0.6890798670227127</v>
+        <v>0.3996777114960253</v>
       </c>
       <c r="G10">
-        <v>0.0007737946399288089</v>
+        <v>0.2599844828832971</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.006959065641057194</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2008475120274795</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1244504215715025</v>
       </c>
       <c r="L10">
-        <v>0.4917824881637785</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5304660944830033</v>
       </c>
       <c r="O10">
-        <v>1.836714863363653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9228652927386349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.673403189607143</v>
+        <v>5.593628946228819</v>
       </c>
       <c r="C11">
-        <v>0.7102991665620664</v>
+        <v>0.9276869025860606</v>
       </c>
       <c r="D11">
-        <v>0.06911365262614311</v>
+        <v>0.1271927469423701</v>
       </c>
       <c r="E11">
-        <v>0.03536749692738361</v>
+        <v>0.05973029738300628</v>
       </c>
       <c r="F11">
-        <v>0.7283587879106364</v>
+        <v>0.3668218015394089</v>
       </c>
       <c r="G11">
-        <v>0.0007701914494291495</v>
+        <v>0.2235072162496294</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02559231883001445</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1776949465706821</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.0967617766280533</v>
       </c>
       <c r="L11">
-        <v>0.5275768827871303</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3958397898056631</v>
       </c>
       <c r="O11">
-        <v>1.923555869792523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.7972673407219304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.820764787946928</v>
+        <v>5.730001604558822</v>
       </c>
       <c r="C12">
-        <v>0.7247119211583595</v>
+        <v>1.033989134442578</v>
       </c>
       <c r="D12">
-        <v>0.07046854295781912</v>
+        <v>0.1397644750794171</v>
       </c>
       <c r="E12">
-        <v>0.03541772320995484</v>
+        <v>0.05807362696495133</v>
       </c>
       <c r="F12">
-        <v>0.743657437864897</v>
+        <v>0.331922560922628</v>
       </c>
       <c r="G12">
-        <v>0.0007688371763033155</v>
+        <v>0.1900981135714872</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06397306994463037</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1586476123482825</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.08055432421206099</v>
       </c>
       <c r="L12">
-        <v>0.5412302044962729</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2878186037903419</v>
       </c>
       <c r="O12">
-        <v>1.957835407501165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.6866339499865006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.789003196190947</v>
+        <v>5.69701908536274</v>
       </c>
       <c r="C13">
-        <v>0.7216060523730334</v>
+        <v>1.117258106896799</v>
       </c>
       <c r="D13">
-        <v>0.07017656409624351</v>
+        <v>0.1485467218647898</v>
       </c>
       <c r="E13">
-        <v>0.035405771648092</v>
+        <v>0.06587280903495341</v>
       </c>
       <c r="F13">
-        <v>0.7403430361669905</v>
+        <v>0.2932060601587239</v>
       </c>
       <c r="G13">
-        <v>0.000769128404359961</v>
+        <v>0.1568842223445372</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1190912079205049</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1414958794562082</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.07181000370448798</v>
       </c>
       <c r="L13">
-        <v>0.5382851175172618</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1945337600487917</v>
       </c>
       <c r="O13">
-        <v>1.95038849210593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.5802824557470529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.685515749429328</v>
+        <v>5.597204394777236</v>
       </c>
       <c r="C14">
-        <v>0.7114841008627764</v>
+        <v>1.165354023850966</v>
       </c>
       <c r="D14">
-        <v>0.06922504067522794</v>
+        <v>0.1529897863732543</v>
       </c>
       <c r="E14">
-        <v>0.03537112056329406</v>
+        <v>0.076864879344404</v>
       </c>
       <c r="F14">
-        <v>0.7296086641263457</v>
+        <v>0.2647294141765784</v>
       </c>
       <c r="G14">
-        <v>0.0007700798335368425</v>
+        <v>0.134175504527029</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1678794365793834</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1305377926838815</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.06954207295650461</v>
       </c>
       <c r="L14">
-        <v>0.5286980961610084</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1389505135436622</v>
       </c>
       <c r="O14">
-        <v>1.92634733728579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5091313914464166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.622197275640531</v>
+        <v>5.5367176126461</v>
       </c>
       <c r="C15">
-        <v>0.7052893341443109</v>
+        <v>1.170825592345011</v>
       </c>
       <c r="D15">
-        <v>0.06864271681013889</v>
+        <v>0.1531424776122634</v>
       </c>
       <c r="E15">
-        <v>0.03535318612992455</v>
+        <v>0.08010285712395415</v>
       </c>
       <c r="F15">
-        <v>0.7230901017274221</v>
+        <v>0.2569184513877758</v>
       </c>
       <c r="G15">
-        <v>0.0007706639114071337</v>
+        <v>0.1284593184664402</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1801306639598295</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1281826682641167</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.07002773137732576</v>
       </c>
       <c r="L15">
-        <v>0.5228390137843064</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1263084498286133</v>
       </c>
       <c r="O15">
-        <v>1.911807086949494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.4920435842576723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.260359484044614</v>
+        <v>5.192188497973973</v>
       </c>
       <c r="C16">
-        <v>0.6698644746591924</v>
+        <v>1.104875043809528</v>
       </c>
       <c r="D16">
-        <v>0.06531296682824461</v>
+        <v>0.1436915399499696</v>
       </c>
       <c r="E16">
-        <v>0.03529949119147346</v>
+        <v>0.0776511879476498</v>
       </c>
       <c r="F16">
-        <v>0.6865700324545685</v>
+        <v>0.2485076331530394</v>
       </c>
       <c r="G16">
-        <v>0.0007740315869425406</v>
+        <v>0.125741779449406</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1660360757902311</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1308944868093675</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.07738899076450867</v>
       </c>
       <c r="L16">
-        <v>0.4894563665873761</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1221493194673684</v>
       </c>
       <c r="O16">
-        <v>1.831227503457029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.4917425125462671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.039218745789469</v>
+        <v>4.981700509963503</v>
       </c>
       <c r="C17">
-        <v>0.6481938125455144</v>
+        <v>1.028847642175776</v>
       </c>
       <c r="D17">
-        <v>0.06327624266395304</v>
+        <v>0.1341027423247141</v>
       </c>
       <c r="E17">
-        <v>0.03530891829091054</v>
+        <v>0.06909714661841626</v>
       </c>
       <c r="F17">
-        <v>0.6648780909986129</v>
+        <v>0.257224365136338</v>
       </c>
       <c r="G17">
-        <v>0.0007761165666524882</v>
+        <v>0.1356692255442908</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1275364890786364</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1388198549371467</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.08416016690215056</v>
       </c>
       <c r="L17">
-        <v>0.4691396124258347</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1462980976048769</v>
       </c>
       <c r="O17">
-        <v>1.784137445089442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.5292501321895031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.912304285906146</v>
+        <v>4.862037291293518</v>
       </c>
       <c r="C18">
-        <v>0.6357498801465624</v>
+        <v>0.9388515598125196</v>
       </c>
       <c r="D18">
-        <v>0.06210675467193028</v>
+        <v>0.1235880689111468</v>
       </c>
       <c r="E18">
-        <v>0.03532936100200423</v>
+        <v>0.05944289322298069</v>
       </c>
       <c r="F18">
-        <v>0.6526503016172853</v>
+        <v>0.2820723464133152</v>
       </c>
       <c r="G18">
-        <v>0.000777323040326889</v>
+        <v>0.1585642738108319</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07456595392604015</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1525099692984071</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.09302892769772519</v>
       </c>
       <c r="L18">
-        <v>0.4575097479607138</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2069642568948211</v>
       </c>
       <c r="O18">
-        <v>1.757872702895128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6063813112112086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.869378812788455</v>
+        <v>4.823902309904554</v>
       </c>
       <c r="C19">
-        <v>0.6315399014079048</v>
+        <v>0.848583144948293</v>
       </c>
       <c r="D19">
-        <v>0.06171110716936568</v>
+        <v>0.1134642287406962</v>
       </c>
       <c r="E19">
-        <v>0.03533881172971576</v>
+        <v>0.0571320113608223</v>
       </c>
       <c r="F19">
-        <v>0.6485517442127673</v>
+        <v>0.3191645126722662</v>
       </c>
       <c r="G19">
-        <v>0.000777732800416239</v>
+        <v>0.1920510995103371</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02982806660881465</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1706044145313896</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1058044512972689</v>
       </c>
       <c r="L19">
-        <v>0.4535813007282599</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3071820400593026</v>
       </c>
       <c r="O19">
-        <v>1.749117033840889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7152463453064115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.062729997249221</v>
+        <v>5.015343778602073</v>
       </c>
       <c r="C20">
-        <v>0.6504985282613234</v>
+        <v>0.7578511484185242</v>
       </c>
       <c r="D20">
-        <v>0.06349284566496749</v>
+        <v>0.1045226112119479</v>
       </c>
       <c r="E20">
-        <v>0.03530634807450639</v>
+        <v>0.07379121971994174</v>
       </c>
       <c r="F20">
-        <v>0.6671611990455091</v>
+        <v>0.3893241560562544</v>
       </c>
       <c r="G20">
-        <v>0.0007758938725201033</v>
+        <v>0.253870178175255</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.006007817255338388</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2002718303470274</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1281513717617528</v>
       </c>
       <c r="L20">
-        <v>0.4712965052379445</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5136956776693182</v>
       </c>
       <c r="O20">
-        <v>1.789064474211131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9085640026309818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.715897649798649</v>
+        <v>5.640373225983524</v>
       </c>
       <c r="C21">
-        <v>0.7144560627101555</v>
+        <v>0.8230764468272298</v>
       </c>
       <c r="D21">
-        <v>0.06950441823185827</v>
+        <v>0.1157553477357993</v>
       </c>
       <c r="E21">
-        <v>0.03538060942438648</v>
+        <v>0.07862631942636789</v>
       </c>
       <c r="F21">
-        <v>0.7327497472950739</v>
+        <v>0.4287132006495398</v>
       </c>
       <c r="G21">
-        <v>0.0007698001063787013</v>
+        <v>0.280326805922968</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.008941801709557988</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2063764675616682</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1217932799032937</v>
       </c>
       <c r="L21">
-        <v>0.5315112529877268</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5916762278710337</v>
       </c>
       <c r="O21">
-        <v>1.933369871726512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9778230058726933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.145865220631265</v>
+        <v>6.04904140431546</v>
       </c>
       <c r="C22">
-        <v>0.7564839669798005</v>
+        <v>0.8708686146563309</v>
       </c>
       <c r="D22">
-        <v>0.07345564882025712</v>
+        <v>0.1236821537835624</v>
       </c>
       <c r="E22">
-        <v>0.0355749101411309</v>
+        <v>0.08044931555139279</v>
       </c>
       <c r="F22">
-        <v>0.7781117115249288</v>
+        <v>0.4524338861310184</v>
       </c>
       <c r="G22">
-        <v>0.0007658763691166161</v>
+        <v>0.2956697514871962</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01109975321915224</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2094246118331</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.116888195687892</v>
       </c>
       <c r="L22">
-        <v>0.5714472294596646</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6324569616029407</v>
       </c>
       <c r="O22">
-        <v>2.035879441861027</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.016978228214498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.916070907814515</v>
+        <v>5.830871954158397</v>
       </c>
       <c r="C23">
-        <v>0.73402968240066</v>
+        <v>0.8453598066890891</v>
       </c>
       <c r="D23">
-        <v>0.07134451982922485</v>
+        <v>0.1194511924784223</v>
       </c>
       <c r="E23">
-        <v>0.03545726013243566</v>
+        <v>0.07947532523487766</v>
       </c>
       <c r="F23">
-        <v>0.7536585153256681</v>
+        <v>0.4396765100426236</v>
       </c>
       <c r="G23">
-        <v>0.0007679654402381707</v>
+        <v>0.2873927882018705</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.009922601284261303</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2077479763094061</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1194395567128783</v>
       </c>
       <c r="L23">
-        <v>0.5500750293336552</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6106784598887458</v>
       </c>
       <c r="O23">
-        <v>1.980372504395774</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9957898792739002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.052099874426347</v>
+        <v>5.00563578515613</v>
       </c>
       <c r="C24">
-        <v>0.6494565206156437</v>
+        <v>0.7487607339521105</v>
       </c>
       <c r="D24">
-        <v>0.0633949149757953</v>
+        <v>0.1034301883042161</v>
       </c>
       <c r="E24">
-        <v>0.0353074634056405</v>
+        <v>0.07580600108025948</v>
       </c>
       <c r="F24">
-        <v>0.6661282514080824</v>
+        <v>0.3934149883480984</v>
       </c>
       <c r="G24">
-        <v>0.0007759945281896416</v>
+        <v>0.257906532925503</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.005999624057084263</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2024581272484625</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1305207428319619</v>
       </c>
       <c r="L24">
-        <v>0.4703212175930531</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5284564229334876</v>
       </c>
       <c r="O24">
-        <v>1.786834457342934</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9216943374223376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.130579945025318</v>
+        <v>4.116677223398369</v>
       </c>
       <c r="C25">
-        <v>0.5589909856887232</v>
+        <v>0.6444964592230633</v>
       </c>
       <c r="D25">
-        <v>0.054893574171615</v>
+        <v>0.08613772888273985</v>
       </c>
       <c r="E25">
-        <v>0.03571426325570037</v>
+        <v>0.07187172806179376</v>
       </c>
       <c r="F25">
-        <v>0.5810903690645191</v>
+        <v>0.3474161135503451</v>
       </c>
       <c r="G25">
-        <v>0.0007849351216924032</v>
+        <v>0.2296217017421469</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002771371098935882</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1988131687363648</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1452339773045317</v>
       </c>
       <c r="L25">
-        <v>0.3863856022920515</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4401642006547917</v>
       </c>
       <c r="O25">
-        <v>1.608998351858162</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.8535195064023213</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.462069491854606</v>
+        <v>3.462500943890745</v>
       </c>
       <c r="C2">
-        <v>0.5675722280577702</v>
+        <v>0.5778793266819662</v>
       </c>
       <c r="D2">
-        <v>0.07337647418060556</v>
+        <v>0.07520083796659094</v>
       </c>
       <c r="E2">
-        <v>0.06897784216967473</v>
+        <v>0.06636247075210733</v>
       </c>
       <c r="F2">
-        <v>0.3164367826168899</v>
+        <v>0.3086587200838125</v>
       </c>
       <c r="G2">
-        <v>0.21139191066856</v>
+        <v>0.1881987329554562</v>
       </c>
       <c r="H2">
-        <v>0.001124437265626943</v>
+        <v>0.001116357257028966</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1977102009159708</v>
+        <v>0.2362080486807869</v>
       </c>
       <c r="K2">
-        <v>0.1581899856917133</v>
+        <v>0.1522672950276505</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1035285094130032</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02554739437803111</v>
       </c>
       <c r="N2">
-        <v>0.3753336768835425</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3788073058528596</v>
       </c>
       <c r="Q2">
-        <v>0.8121098666546374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.790039320407061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.017905616329358</v>
+        <v>3.019958769558002</v>
       </c>
       <c r="C3">
-        <v>0.5153018142706287</v>
+        <v>0.5173684613352521</v>
       </c>
       <c r="D3">
-        <v>0.0647014159623609</v>
+        <v>0.06587190246724361</v>
       </c>
       <c r="E3">
-        <v>0.06701031427209969</v>
+        <v>0.06478011740426037</v>
       </c>
       <c r="F3">
-        <v>0.2970270622189091</v>
+        <v>0.2914144166175987</v>
       </c>
       <c r="G3">
-        <v>0.2004557992383482</v>
+        <v>0.1787625629112526</v>
       </c>
       <c r="H3">
-        <v>0.0004012363475155434</v>
+        <v>0.0004391177783954481</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1978595155691494</v>
+        <v>0.2356852447819335</v>
       </c>
       <c r="K3">
-        <v>0.1681768196633193</v>
+        <v>0.1622299535461735</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1096425397878189</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02773701598598555</v>
       </c>
       <c r="N3">
-        <v>0.3314339553335657</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3346755853442858</v>
       </c>
       <c r="Q3">
-        <v>0.7889140090488098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.7723627476622852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.744785753065173</v>
+        <v>2.747701338853744</v>
       </c>
       <c r="C4">
-        <v>0.4831281199584225</v>
+        <v>0.4802874098461984</v>
       </c>
       <c r="D4">
-        <v>0.05935924879059229</v>
+        <v>0.06014144830820811</v>
       </c>
       <c r="E4">
-        <v>0.06579660691001177</v>
+        <v>0.06379953008221584</v>
       </c>
       <c r="F4">
-        <v>0.2858237442440554</v>
+        <v>0.2814076745857719</v>
       </c>
       <c r="G4">
-        <v>0.1943779422547181</v>
+        <v>0.1735697754964463</v>
       </c>
       <c r="H4">
-        <v>0.0001313694639644147</v>
+        <v>0.000170192099159916</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1983657016373783</v>
+        <v>0.2355898956644893</v>
       </c>
       <c r="K4">
-        <v>0.1748668728141674</v>
+        <v>0.1688082472414845</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.113705901948002</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02963131441619549</v>
       </c>
       <c r="N4">
-        <v>0.304474712393386</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3075846089513732</v>
       </c>
       <c r="Q4">
-        <v>0.7768815047513016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.7632939062548445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.633369034975146</v>
+        <v>2.636606709703756</v>
       </c>
       <c r="C5">
-        <v>0.4699958420363828</v>
+        <v>0.4651939965351062</v>
       </c>
       <c r="D5">
-        <v>0.05717802858605125</v>
+        <v>0.05780532820995887</v>
       </c>
       <c r="E5">
-        <v>0.06530024067038465</v>
+        <v>0.06339737806658796</v>
       </c>
       <c r="F5">
-        <v>0.2814283824107164</v>
+        <v>0.2774678092177609</v>
       </c>
       <c r="G5">
-        <v>0.1920524572151976</v>
+        <v>0.1715956193396906</v>
       </c>
       <c r="H5">
-        <v>6.238384558499011E-05</v>
+        <v>9.518180442646962E-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1986722498868474</v>
+        <v>0.2356058319509842</v>
       </c>
       <c r="K5">
-        <v>0.1777281458315354</v>
+        <v>0.1716006828429446</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1154395282361573</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03053830417514281</v>
       </c>
       <c r="N5">
-        <v>0.2934844302179158</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2965438918274685</v>
       </c>
       <c r="Q5">
-        <v>0.7725067276352178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.760024198270969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.614860761836269</v>
+        <v>2.618150264084477</v>
       </c>
       <c r="C6">
-        <v>0.4678139210923007</v>
+        <v>0.4626887755474627</v>
       </c>
       <c r="D6">
-        <v>0.05681557370650125</v>
+        <v>0.05741735380355095</v>
       </c>
       <c r="E6">
-        <v>0.06521770241753799</v>
+        <v>0.06333043851902787</v>
       </c>
       <c r="F6">
-        <v>0.280708536316574</v>
+        <v>0.2768216955079623</v>
       </c>
       <c r="G6">
-        <v>0.1916751966979362</v>
+        <v>0.171276122855808</v>
       </c>
       <c r="H6">
-        <v>5.332393463197693E-05</v>
+        <v>8.474725968921071E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1987290954190968</v>
+        <v>0.2356117317131634</v>
       </c>
       <c r="K6">
-        <v>0.1782112612180065</v>
+        <v>0.1720709914180052</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1157320930887167</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03069697388776849</v>
       </c>
       <c r="N6">
-        <v>0.291659165260711</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.294710464062149</v>
       </c>
       <c r="Q6">
-        <v>0.7718114501875135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.7595063376886486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.74328364838334</v>
+        <v>2.746163485719819</v>
       </c>
       <c r="C7">
-        <v>0.4829511009962175</v>
+        <v>0.4796992300144609</v>
       </c>
       <c r="D7">
-        <v>0.05932984966785426</v>
+        <v>0.06024409682514431</v>
       </c>
       <c r="E7">
-        <v>0.06578992036794151</v>
+        <v>0.06379452286437459</v>
       </c>
       <c r="F7">
-        <v>0.2857637905497583</v>
+        <v>0.2806569644307828</v>
       </c>
       <c r="G7">
-        <v>0.1943459788617119</v>
+        <v>0.1756826350797311</v>
       </c>
       <c r="H7">
-        <v>0.0001302767908771818</v>
+        <v>0.0001682309403576721</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1983694349693295</v>
+        <v>0.2322675449806368</v>
       </c>
       <c r="K7">
-        <v>0.1749049211271352</v>
+        <v>0.1686225318965207</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1135918615234939</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02960860701443035</v>
       </c>
       <c r="N7">
-        <v>0.3043265143623017</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3073788079361321</v>
       </c>
       <c r="Q7">
-        <v>0.7768203999068959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.7611459716638507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.308994184087794</v>
+        <v>3.309876029678037</v>
       </c>
       <c r="C8">
-        <v>0.54956505535867</v>
+        <v>0.5557083854839959</v>
       </c>
       <c r="D8">
-        <v>0.07038836613629229</v>
+        <v>0.07243774750713783</v>
       </c>
       <c r="E8">
-        <v>0.06830039153953216</v>
+        <v>0.06582314613622309</v>
       </c>
       <c r="F8">
-        <v>0.3095901896076825</v>
+        <v>0.3002779140304881</v>
       </c>
       <c r="G8">
-        <v>0.2074834859594716</v>
+        <v>0.1919789596830057</v>
       </c>
       <c r="H8">
-        <v>0.0008372045044094945</v>
+        <v>0.0008453115008781875</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1976732238638803</v>
+        <v>0.2252219276513401</v>
       </c>
       <c r="K8">
-        <v>0.1615143563064372</v>
+        <v>0.1548940587454712</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1051900542172053</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02602201494889478</v>
       </c>
       <c r="N8">
-        <v>0.3601961478141789</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3633983914815673</v>
       </c>
       <c r="Q8">
-        <v>0.8036366277380864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.7766293146565602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.416066517959393</v>
+        <v>4.411914953059807</v>
       </c>
       <c r="C9">
-        <v>0.6796360881439512</v>
+        <v>0.7067910847460723</v>
       </c>
       <c r="D9">
-        <v>0.09196599496372215</v>
+        <v>0.09585752759978305</v>
       </c>
       <c r="E9">
-        <v>0.07319541907327043</v>
+        <v>0.06974145702680268</v>
       </c>
       <c r="F9">
-        <v>0.3624320161789854</v>
+        <v>0.3462832003527865</v>
       </c>
       <c r="G9">
-        <v>0.2387183618800464</v>
+        <v>0.2212577060931125</v>
       </c>
       <c r="H9">
-        <v>0.003736810186995509</v>
+        <v>0.003450557427927325</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1997830573030512</v>
+        <v>0.2249761756120279</v>
       </c>
       <c r="K9">
-        <v>0.1399318056593408</v>
+        <v>0.1326389520565385</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09167431736762488</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.023621967442498</v>
       </c>
       <c r="N9">
-        <v>0.4698673899708723</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.473628380932368</v>
       </c>
       <c r="Q9">
-        <v>0.8750343788574781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8298503855370427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.228829099846735</v>
+        <v>5.21972974706398</v>
       </c>
       <c r="C10">
-        <v>0.7851607290768357</v>
+        <v>0.8250702698837529</v>
       </c>
       <c r="D10">
-        <v>0.1089305678333972</v>
+        <v>0.1149837986414468</v>
       </c>
       <c r="E10">
-        <v>0.0741701144106468</v>
+        <v>0.07022447672615328</v>
       </c>
       <c r="F10">
-        <v>0.3996777114960253</v>
+        <v>0.3744720706482099</v>
       </c>
       <c r="G10">
-        <v>0.2599844828832971</v>
+        <v>0.254522305794886</v>
       </c>
       <c r="H10">
-        <v>0.006959065641057194</v>
+        <v>0.006272870495473981</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2008475120274795</v>
+        <v>0.2063303976309498</v>
       </c>
       <c r="K10">
-        <v>0.1244504215715025</v>
+        <v>0.1156238742968387</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08209288381673208</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02343657920428477</v>
       </c>
       <c r="N10">
-        <v>0.5304660944830033</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.53404249392878</v>
       </c>
       <c r="Q10">
-        <v>0.9228652927386349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8524593967245266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.593628946228819</v>
+        <v>5.582219612305096</v>
       </c>
       <c r="C11">
-        <v>0.9276869025860606</v>
+        <v>0.9588174466932742</v>
       </c>
       <c r="D11">
-        <v>0.1271927469423701</v>
+        <v>0.1350125548727306</v>
       </c>
       <c r="E11">
-        <v>0.05973029738300628</v>
+        <v>0.05717241748541779</v>
       </c>
       <c r="F11">
-        <v>0.3668218015394089</v>
+        <v>0.33763700340333</v>
       </c>
       <c r="G11">
-        <v>0.2235072162496294</v>
+        <v>0.2495859357917993</v>
       </c>
       <c r="H11">
-        <v>0.02559231883001445</v>
+        <v>0.02477371402186179</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1776949465706821</v>
+        <v>0.1577022680125566</v>
       </c>
       <c r="K11">
-        <v>0.0967617766280533</v>
+        <v>0.09120613675053146</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0727565029362891</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01592873219956914</v>
       </c>
       <c r="N11">
-        <v>0.3958397898056631</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3968667603058549</v>
       </c>
       <c r="Q11">
-        <v>0.7972673407219304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7187809919646639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.730001604558822</v>
+        <v>5.71786807927424</v>
       </c>
       <c r="C12">
-        <v>1.033989134442578</v>
+        <v>1.05449554321487</v>
       </c>
       <c r="D12">
-        <v>0.1397644750794171</v>
+        <v>0.1480862499410307</v>
       </c>
       <c r="E12">
-        <v>0.05807362696495133</v>
+        <v>0.05623144548950876</v>
       </c>
       <c r="F12">
-        <v>0.331922560922628</v>
+        <v>0.3039643804047287</v>
       </c>
       <c r="G12">
-        <v>0.1900981135714872</v>
+        <v>0.2301056818378484</v>
       </c>
       <c r="H12">
-        <v>0.06397306994463037</v>
+        <v>0.0631336641328204</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1586476123482825</v>
+        <v>0.1352616267248692</v>
       </c>
       <c r="K12">
-        <v>0.08055432421206099</v>
+        <v>0.07853209373274783</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06877771147012135</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01089769997800527</v>
       </c>
       <c r="N12">
-        <v>0.2878186037903419</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2873288530139746</v>
       </c>
       <c r="Q12">
-        <v>0.6866339499865006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6146322945965892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.69701908536274</v>
+        <v>5.685512335942008</v>
       </c>
       <c r="C13">
-        <v>1.117258106896799</v>
+        <v>1.126579678942278</v>
       </c>
       <c r="D13">
-        <v>0.1485467218647898</v>
+        <v>0.1558591207189863</v>
       </c>
       <c r="E13">
-        <v>0.06587280903495341</v>
+        <v>0.06433195780481071</v>
       </c>
       <c r="F13">
-        <v>0.2932060601587239</v>
+        <v>0.2716024821717724</v>
       </c>
       <c r="G13">
-        <v>0.1568842223445372</v>
+        <v>0.1938611267400177</v>
       </c>
       <c r="H13">
-        <v>0.1190912079205049</v>
+        <v>0.1183232899267779</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1414958794562082</v>
+        <v>0.1287313828979109</v>
       </c>
       <c r="K13">
-        <v>0.07181000370448798</v>
+        <v>0.07314701501762033</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06757780593795704</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.007673898154423764</v>
       </c>
       <c r="N13">
-        <v>0.1945337600487917</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1932476640474974</v>
       </c>
       <c r="Q13">
-        <v>0.5802824557470529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5281872969699748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.597204394777236</v>
+        <v>5.586712787481872</v>
       </c>
       <c r="C14">
-        <v>1.165354023850966</v>
+        <v>1.166531837108778</v>
       </c>
       <c r="D14">
-        <v>0.1529897863732543</v>
+        <v>0.1588692072268714</v>
       </c>
       <c r="E14">
-        <v>0.076864879344404</v>
+        <v>0.07531379032567997</v>
       </c>
       <c r="F14">
-        <v>0.2647294141765784</v>
+        <v>0.2494238852603843</v>
       </c>
       <c r="G14">
-        <v>0.134175504527029</v>
+        <v>0.162877054266346</v>
       </c>
       <c r="H14">
-        <v>0.1678794365793834</v>
+        <v>0.1671959682932425</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1305377926838815</v>
+        <v>0.1294230673166901</v>
       </c>
       <c r="K14">
-        <v>0.06954207295650461</v>
+        <v>0.07261194321600373</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06773677299377967</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.006456567013739978</v>
       </c>
       <c r="N14">
-        <v>0.1389505135436622</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1374230825703009</v>
       </c>
       <c r="Q14">
-        <v>0.5091313914464166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4751503692445453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.5367176126461</v>
+        <v>5.526753834624344</v>
       </c>
       <c r="C15">
-        <v>1.170825592345011</v>
+        <v>1.170117483868239</v>
       </c>
       <c r="D15">
-        <v>0.1531424776122634</v>
+        <v>0.1583755424901199</v>
       </c>
       <c r="E15">
-        <v>0.08010285712395415</v>
+        <v>0.07854055567771034</v>
       </c>
       <c r="F15">
-        <v>0.2569184513877758</v>
+        <v>0.2439803370821565</v>
       </c>
       <c r="G15">
-        <v>0.1284593184664402</v>
+        <v>0.1527689634153191</v>
       </c>
       <c r="H15">
-        <v>0.1801306639598295</v>
+        <v>0.1794883449194202</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1281826682641167</v>
+        <v>0.1318608237217482</v>
       </c>
       <c r="K15">
-        <v>0.07002773137732576</v>
+        <v>0.07337612828164108</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06801107826901642</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.006411811355814701</v>
       </c>
       <c r="N15">
-        <v>0.1263084498286133</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.124802531520217</v>
       </c>
       <c r="Q15">
-        <v>0.4920435842576723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.464462639353826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.192188497973973</v>
+        <v>5.184823580557406</v>
       </c>
       <c r="C16">
-        <v>1.104875043809528</v>
+        <v>1.105399464624981</v>
       </c>
       <c r="D16">
-        <v>0.1436915399499696</v>
+        <v>0.1465739545961355</v>
       </c>
       <c r="E16">
-        <v>0.0776511879476498</v>
+        <v>0.0762883794906184</v>
       </c>
       <c r="F16">
-        <v>0.2485076331530394</v>
+        <v>0.2429237893388532</v>
       </c>
       <c r="G16">
-        <v>0.125741779449406</v>
+        <v>0.1303441724575336</v>
       </c>
       <c r="H16">
-        <v>0.1660360757902311</v>
+        <v>0.1655908307037919</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1308944868093675</v>
+        <v>0.154319323598969</v>
       </c>
       <c r="K16">
-        <v>0.07738899076450867</v>
+        <v>0.08034247940530828</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07000791038160159</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.007973686834463756</v>
       </c>
       <c r="N16">
-        <v>0.1221493194673684</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1211836814801899</v>
       </c>
       <c r="Q16">
-        <v>0.4917425125462671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4826696479654942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.981700509963503</v>
+        <v>4.975671425022767</v>
       </c>
       <c r="C17">
-        <v>1.028847642175776</v>
+        <v>1.033829051927768</v>
       </c>
       <c r="D17">
-        <v>0.1341027423247141</v>
+        <v>0.1363031571232938</v>
       </c>
       <c r="E17">
-        <v>0.06909714661841626</v>
+        <v>0.06787222321495179</v>
       </c>
       <c r="F17">
-        <v>0.257224365136338</v>
+        <v>0.2533954771219342</v>
       </c>
       <c r="G17">
-        <v>0.1356692255442908</v>
+        <v>0.1311841568520222</v>
       </c>
       <c r="H17">
-        <v>0.1275364890786364</v>
+        <v>0.127185417792063</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1388198549371467</v>
+        <v>0.1713255155262203</v>
       </c>
       <c r="K17">
-        <v>0.08416016690215056</v>
+        <v>0.08639891782277709</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07203632419352719</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.009660215075337319</v>
       </c>
       <c r="N17">
-        <v>0.1462980976048769</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1458492655166026</v>
       </c>
       <c r="Q17">
-        <v>0.5292501321895031</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.524054261828752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.862037291293518</v>
+        <v>4.856559701524077</v>
       </c>
       <c r="C18">
-        <v>0.9388515598125196</v>
+        <v>0.951919769220325</v>
       </c>
       <c r="D18">
-        <v>0.1235880689111468</v>
+        <v>0.1260130516269697</v>
       </c>
       <c r="E18">
-        <v>0.05944289322298069</v>
+        <v>0.05814145974710794</v>
       </c>
       <c r="F18">
-        <v>0.2820723464133152</v>
+        <v>0.2766257048993381</v>
       </c>
       <c r="G18">
-        <v>0.1585642738108319</v>
+        <v>0.1480278122654823</v>
       </c>
       <c r="H18">
-        <v>0.07456595392604015</v>
+        <v>0.07424569585005969</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1525099692984071</v>
+        <v>0.188193964407084</v>
       </c>
       <c r="K18">
-        <v>0.09302892769772519</v>
+        <v>0.09391610323398414</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0749445359280454</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01207455631902654</v>
       </c>
       <c r="N18">
-        <v>0.2069642568948211</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2073012855573992</v>
       </c>
       <c r="Q18">
-        <v>0.6063813112112086</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5958926659429693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.823902309904554</v>
+        <v>4.818318719378965</v>
       </c>
       <c r="C19">
-        <v>0.848583144948293</v>
+        <v>0.8714791249344671</v>
       </c>
       <c r="D19">
-        <v>0.1134642287406962</v>
+        <v>0.1165873841656264</v>
       </c>
       <c r="E19">
-        <v>0.0571320113608223</v>
+        <v>0.05525353492995544</v>
       </c>
       <c r="F19">
-        <v>0.3191645126722662</v>
+        <v>0.3097306023855495</v>
       </c>
       <c r="G19">
-        <v>0.1920510995103371</v>
+        <v>0.1764469172370653</v>
       </c>
       <c r="H19">
-        <v>0.02982806660881465</v>
+        <v>0.02948130820867334</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1706044145313896</v>
+        <v>0.2056554552531011</v>
       </c>
       <c r="K19">
-        <v>0.1058044512972689</v>
+        <v>0.1042475276187949</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07905846180261022</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01580200034352242</v>
       </c>
       <c r="N19">
-        <v>0.3071820400593026</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.308730648884179</v>
       </c>
       <c r="Q19">
-        <v>0.7152463453064115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.6924497248358108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.015343778602073</v>
+        <v>5.007802333569089</v>
       </c>
       <c r="C20">
-        <v>0.7578511484185242</v>
+        <v>0.7957668599850081</v>
       </c>
       <c r="D20">
-        <v>0.1045226112119479</v>
+        <v>0.1094845669244933</v>
       </c>
       <c r="E20">
-        <v>0.07379121971994174</v>
+        <v>0.06997244949750581</v>
       </c>
       <c r="F20">
-        <v>0.3893241560562544</v>
+        <v>0.3690622788195554</v>
       </c>
       <c r="G20">
-        <v>0.253870178175255</v>
+        <v>0.2373443650525289</v>
       </c>
       <c r="H20">
-        <v>0.006007817255338388</v>
+        <v>0.005453440522306341</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2002718303470274</v>
+        <v>0.2216113603701828</v>
       </c>
       <c r="K20">
-        <v>0.1281513717617528</v>
+        <v>0.120466786841579</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08467379236675665</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02354620726286427</v>
       </c>
       <c r="N20">
-        <v>0.5136956776693182</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5175172408162751</v>
       </c>
       <c r="Q20">
-        <v>0.9085640026309818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8523866735532408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.640373225983524</v>
+        <v>5.62758557763982</v>
       </c>
       <c r="C21">
-        <v>0.8230764468272298</v>
+        <v>0.8650160866837382</v>
       </c>
       <c r="D21">
-        <v>0.1157553477357993</v>
+        <v>0.1252909941088092</v>
       </c>
       <c r="E21">
-        <v>0.07862631942636789</v>
+        <v>0.07416319210721412</v>
       </c>
       <c r="F21">
-        <v>0.4287132006495398</v>
+        <v>0.3868323021252351</v>
       </c>
       <c r="G21">
-        <v>0.280326805922968</v>
+        <v>0.3167639817744288</v>
       </c>
       <c r="H21">
-        <v>0.008941801709557988</v>
+        <v>0.007914150673519096</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2063764675616682</v>
+        <v>0.1630463592320552</v>
       </c>
       <c r="K21">
-        <v>0.1217932799032937</v>
+        <v>0.1081442817781983</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07791183160865334</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02415742394390819</v>
       </c>
       <c r="N21">
-        <v>0.5916762278710337</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5946361006322149</v>
       </c>
       <c r="Q21">
-        <v>0.9778230058726933</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8585109230502184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.04904140431546</v>
+        <v>6.032513856181879</v>
       </c>
       <c r="C22">
-        <v>0.8708686146563309</v>
+        <v>0.9143170949370187</v>
       </c>
       <c r="D22">
-        <v>0.1236821537835624</v>
+        <v>0.1364953296007485</v>
       </c>
       <c r="E22">
-        <v>0.08044931555139279</v>
+        <v>0.0757163627910451</v>
       </c>
       <c r="F22">
-        <v>0.4524338861310184</v>
+        <v>0.3955029330236286</v>
       </c>
       <c r="G22">
-        <v>0.2956697514871962</v>
+        <v>0.3743902411923585</v>
       </c>
       <c r="H22">
-        <v>0.01109975321915224</v>
+        <v>0.009713333604702504</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2094246118331</v>
+        <v>0.131287612618106</v>
       </c>
       <c r="K22">
-        <v>0.116888195687892</v>
+        <v>0.09938754398944738</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0735317834155218</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.02442339957822703</v>
       </c>
       <c r="N22">
-        <v>0.6324569616029407</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.634608637393697</v>
       </c>
       <c r="Q22">
-        <v>1.016978228214498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8540805552098902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.830871954158397</v>
+        <v>5.816484045156699</v>
       </c>
       <c r="C23">
-        <v>0.8453598066890891</v>
+        <v>0.8890600667438946</v>
       </c>
       <c r="D23">
-        <v>0.1194511924784223</v>
+        <v>0.1301117504736879</v>
       </c>
       <c r="E23">
-        <v>0.07947532523487766</v>
+        <v>0.07486738165477114</v>
       </c>
       <c r="F23">
-        <v>0.4396765100426236</v>
+        <v>0.3926362991469361</v>
       </c>
       <c r="G23">
-        <v>0.2873927882018705</v>
+        <v>0.3364720738229323</v>
       </c>
       <c r="H23">
-        <v>0.009922601284261303</v>
+        <v>0.008742556263467025</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2077479763094061</v>
+        <v>0.1522252755852165</v>
       </c>
       <c r="K23">
-        <v>0.1194395567128783</v>
+        <v>0.1044806809899441</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07596596510909315</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02446683132866845</v>
       </c>
       <c r="N23">
-        <v>0.6106784598887458</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6134172873748014</v>
       </c>
       <c r="Q23">
-        <v>0.9957898792739002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8615838727158547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.00563578515613</v>
+        <v>4.99810213888162</v>
       </c>
       <c r="C24">
-        <v>0.7487607339521105</v>
+        <v>0.7873681328475755</v>
       </c>
       <c r="D24">
-        <v>0.1034301883042161</v>
+        <v>0.1084171965158305</v>
       </c>
       <c r="E24">
-        <v>0.07580600108025948</v>
+        <v>0.07181890757832399</v>
       </c>
       <c r="F24">
-        <v>0.3934149883480984</v>
+        <v>0.3727628192966961</v>
       </c>
       <c r="G24">
-        <v>0.257906532925503</v>
+        <v>0.2404344387548676</v>
       </c>
       <c r="H24">
-        <v>0.005999624057084263</v>
+        <v>0.005440328376671966</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2024581272484625</v>
+        <v>0.2240786891918418</v>
       </c>
       <c r="K24">
-        <v>0.1305207428319619</v>
+        <v>0.1223970446276894</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08542612830732921</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02423727467767556</v>
       </c>
       <c r="N24">
-        <v>0.5284564229334876</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5324857492490622</v>
       </c>
       <c r="Q24">
-        <v>0.9216943374223376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8641540020643816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.116677223398369</v>
+        <v>4.114114289693191</v>
       </c>
       <c r="C25">
-        <v>0.6444964592230633</v>
+        <v>0.6664024470441063</v>
       </c>
       <c r="D25">
-        <v>0.08613772888273985</v>
+        <v>0.08932159026976905</v>
       </c>
       <c r="E25">
-        <v>0.07187172806179376</v>
+        <v>0.06868218336510346</v>
       </c>
       <c r="F25">
-        <v>0.3474161135503451</v>
+        <v>0.3342356222860232</v>
       </c>
       <c r="G25">
-        <v>0.2296217017421469</v>
+        <v>0.2096164385831045</v>
       </c>
       <c r="H25">
-        <v>0.002771371098935882</v>
+        <v>0.002597307884318611</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1988131687363648</v>
+        <v>0.2293323888221437</v>
       </c>
       <c r="K25">
-        <v>0.1452339773045317</v>
+        <v>0.1385090672544003</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09519722764084726</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02386010585724563</v>
       </c>
       <c r="N25">
-        <v>0.4401642006547917</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4438533935847744</v>
       </c>
       <c r="Q25">
-        <v>0.8535195064023213</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8166203258927425</v>
       </c>
     </row>
   </sheetData>
